--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2512487.663351287</v>
+        <v>2635115.121865274</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5527927.398755202</v>
+        <v>5839647.220545158</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>406.1653905745305</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>73.57133377148787</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>152.5147156995356</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>82.03788346929916</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -899,13 +901,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>40.5987056039198</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>30.45217236621979</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>61.22597453453216</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>96.03062519879067</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>100.5466725181079</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>101.9377160114315</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1296,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>75.8605655240319</v>
+        <v>2.269091404314645</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1385,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>148.2593847329124</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1427,13 +1429,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>98.15366458399255</v>
+        <v>91.67815003228512</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1613,10 +1615,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>162.7942194715557</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>98.26334559068053</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>253.6542084583247</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>82.8249910526475</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>55.04879729424608</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396352</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2242,10 +2244,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>96.44420510686395</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>187.8685925588579</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>97.5827846343381</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>108.8521060317415</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>68.22238607350829</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3190,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.02781544003311</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>168.9164623971668</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3272,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399271</v>
+        <v>55.95359808337834</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3664,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>63.08758251923062</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3676,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>85.96456344791471</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>191.7937776523731</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3910,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>43.57932574775482</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>49.65274383947055</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>319.8102837428861</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005377</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1424.423852294003</v>
+        <v>528.1740540056944</v>
       </c>
       <c r="C2" t="n">
-        <v>1401.563526347707</v>
+        <v>505.3137280593986</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.249047790649</v>
+        <v>82.02110724439883</v>
       </c>
       <c r="E2" t="n">
-        <v>901.2721079385067</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>476.1479261279069</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="M2" t="n">
-        <v>815.1719019525203</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="N2" t="n">
-        <v>815.1719019525203</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.957808655251</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="W2" t="n">
-        <v>1449.208273341684</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="X2" t="n">
-        <v>1441.528678549835</v>
+        <v>939.7389912978047</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.231812545129</v>
+        <v>938.442125293099</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668169</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843216</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996066</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725438</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.848999055448</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.795227273052</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>133.8657769972735</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>133.8657769972735</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>133.8657769972735</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>498.2899918885871</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.627938107791</v>
+        <v>977.2289161310152</v>
       </c>
       <c r="N3" t="n">
-        <v>1686.413844810522</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335872</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868796</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.2840337174254</v>
+        <v>550.8622312313053</v>
       </c>
       <c r="C4" t="n">
-        <v>354.2840337174254</v>
+        <v>550.8622312313053</v>
       </c>
       <c r="D4" t="n">
-        <v>190.9672608441961</v>
+        <v>387.545458358076</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082674</v>
+        <v>221.3372525109295</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>38.71266663273803</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>393.4019879271588</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>784.5877828974096</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1484.787268635311</v>
       </c>
       <c r="V4" t="n">
-        <v>823.1906985818782</v>
+        <v>1484.787268635311</v>
       </c>
       <c r="W4" t="n">
-        <v>823.1906985818782</v>
+        <v>1209.934864807824</v>
       </c>
       <c r="X4" t="n">
-        <v>580.6268020276833</v>
+        <v>967.3709682536288</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.2840337174254</v>
+        <v>741.0281999433709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.0088664648861</v>
+        <v>862.5982923554784</v>
       </c>
       <c r="C5" t="n">
-        <v>823.1485405185903</v>
+        <v>839.7379664091826</v>
       </c>
       <c r="D5" t="n">
-        <v>782.1397469792773</v>
+        <v>820.4857496345869</v>
       </c>
       <c r="E5" t="n">
-        <v>356.162807127135</v>
+        <v>798.5492138228485</v>
       </c>
       <c r="F5" t="n">
-        <v>335.0790293569393</v>
+        <v>373.4250320122487</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>373.1263736421014</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>75.25799511613621</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1313.087264683184</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.67405208597</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1267.18463721222</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>870.7932875125664</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X5" t="n">
-        <v>863.1136927207177</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.8168267160121</v>
+        <v>878.4062526066044</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9119924608267</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J6" t="n">
-        <v>36.9119924608267</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K6" t="n">
-        <v>36.9119924608267</v>
+        <v>974.3357998282165</v>
       </c>
       <c r="L6" t="n">
-        <v>36.9119924608267</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="M6" t="n">
-        <v>36.9119924608267</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="N6" t="n">
-        <v>393.2225928484409</v>
+        <v>1592.226407393235</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511718</v>
+        <v>1592.226407393235</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.7743982001963</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="C7" t="n">
-        <v>305.7743982001963</v>
+        <v>623.2416088994861</v>
       </c>
       <c r="D7" t="n">
-        <v>305.7743982001963</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="E7" t="n">
-        <v>305.7743982001963</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>133.9126239747567</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>823.1906985818782</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3382947543912</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>305.7743982001963</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.7743982001963</v>
+        <v>685.0860276212358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>608.6939898724443</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>181.7932598857444</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>932.027809635875</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>932.027809635875</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.813716338606</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2017.57656842498</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1759.221659021392</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y8" t="n">
-        <v>1028.542354163974</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082674</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M9" t="n">
-        <v>493.6978991635576</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N9" t="n">
-        <v>950.4838058662885</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253902</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>867.1949701273463</v>
+        <v>963.7631532458477</v>
       </c>
       <c r="C10" t="n">
-        <v>695.2224070062623</v>
+        <v>791.7905901247636</v>
       </c>
       <c r="D10" t="n">
-        <v>695.2224070062623</v>
+        <v>628.4738172515343</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.415174541641</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1283.70370714967</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1283.70370714967</v>
+        <v>1622.835786822366</v>
       </c>
       <c r="X10" t="n">
-        <v>1283.70370714967</v>
+        <v>1380.271890268171</v>
       </c>
       <c r="Y10" t="n">
-        <v>1057.360938839412</v>
+        <v>1153.929121957913</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2327.874738913662</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1900.974008926962</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1477.681388111962</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1051.70444825982</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>626.5802664492201</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>222.2412040386687</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>152.0180135075252</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>867.5263214830243</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>867.5263214830243</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M11" t="n">
-        <v>1764.518912300144</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>2661.511503117264</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3506.656153268076</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268076</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268076</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149979</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194612</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791024</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3144.932007791024</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3144.932007791024</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2733.212008958772</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2327.874738913662</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425907</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425907</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425907</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>991.6906023320378</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N12" t="n">
-        <v>991.6906023320378</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>343.6019286254902</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="C13" t="n">
-        <v>171.6293655044062</v>
+        <v>604.7287118149693</v>
       </c>
       <c r="D13" t="n">
-        <v>171.6293655044062</v>
+        <v>604.7287118149693</v>
       </c>
       <c r="E13" t="n">
-        <v>171.6293655044062</v>
+        <v>604.7287118149693</v>
       </c>
       <c r="F13" t="n">
-        <v>72.48424976299957</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299957</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299957</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X13" t="n">
-        <v>760.1106656478138</v>
+        <v>1193.210011958377</v>
       </c>
       <c r="Y13" t="n">
-        <v>533.7678973375558</v>
+        <v>966.867243648119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1824.220518284568</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.319788297869</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>974.0271674828689</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>974.0271674828689</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>435.0877085798951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1332.080299397015</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M14" t="n">
-        <v>2229.072890214134</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N14" t="n">
-        <v>3126.065481031254</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O14" t="n">
-        <v>3126.065481031254</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268075</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268075</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149978</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3403.286917194611</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3403.286917194611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3045.797502320861</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2649.406152621208</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2649.406152621208</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2244.068882576099</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F15" t="n">
-        <v>219.914114783086</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299957</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299957</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425907</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425907</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L15" t="n">
-        <v>520.0338126636105</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M15" t="n">
-        <v>1417.02640348073</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.02640348073</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.02640348073</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>343.6019286254902</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C16" t="n">
-        <v>343.6019286254902</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D16" t="n">
-        <v>343.6019286254902</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E16" t="n">
-        <v>343.6019286254902</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>171.7401544000506</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299957</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.422881921163</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1559.238433421467</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V16" t="n">
-        <v>1277.526966029496</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W16" t="n">
-        <v>1002.674562202009</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X16" t="n">
-        <v>760.1106656478138</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.7678973375558</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,10 +5503,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5543,7 +5545,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5592,19 +5594,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>859.3236365966143</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="C19" t="n">
-        <v>687.3510734755303</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D19" t="n">
-        <v>524.034300602301</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E19" t="n">
-        <v>357.8260947551545</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>185.9643205297149</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.832373618938</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1275.832373618938</v>
+        <v>929.8495667802473</v>
       </c>
       <c r="Y19" t="n">
-        <v>1049.48960530868</v>
+        <v>703.5067984699893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5759,19 +5761,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5780,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.986740661465</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N21" t="n">
-        <v>1429.986740661465</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>285.3972456818248</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="23">
@@ -6005,7 +6007,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6075,13 +6077,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>105.4776804749704</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.5554397491844</v>
+        <v>850.3052888313966</v>
       </c>
       <c r="C25" t="n">
-        <v>371.5828766281004</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="D25" t="n">
-        <v>371.5828766281004</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E25" t="n">
-        <v>371.5828766281004</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F25" t="n">
-        <v>199.7211024026608</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1875.775824915308</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1875.775824915308</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>1594.064357523336</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1319.211953695849</v>
       </c>
       <c r="X25" t="n">
-        <v>960.064176771508</v>
+        <v>1076.648057141655</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.72140846125</v>
+        <v>850.3052888313966</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P26" t="n">
         <v>4659.050190787244</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>968.3942625403945</v>
+        <v>919.5070618231949</v>
       </c>
       <c r="C28" t="n">
-        <v>796.4216994193105</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D28" t="n">
-        <v>633.1049265460812</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E28" t="n">
-        <v>466.8967206989347</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>466.8967206989347</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>300.6397509931668</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>2172.764118564673</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1892.579670064977</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.153331232334</v>
+        <v>1610.868202673005</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.300927404847</v>
+        <v>1336.015798845518</v>
       </c>
       <c r="X28" t="n">
-        <v>1194.737030850652</v>
+        <v>1336.015798845518</v>
       </c>
       <c r="Y28" t="n">
-        <v>968.3942625403945</v>
+        <v>1109.673030535261</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6546,10 +6548,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>844.5735305570797</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472353</v>
+        <v>672.6009674359957</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472353</v>
+        <v>509.2841945627664</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472353</v>
+        <v>343.0759887156199</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>171.2142144901804</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>1261.082267579403</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>1034.739499269145</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,22 +6785,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2238.243199970439</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2068.108152489574</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>1824.768804715474</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1544.584356215778</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690841</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109899</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.0699265966</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747412</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7023,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>1070.140847647432</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>898.1682845263483</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>734.851511653119</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>568.6433058059725</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>1260.306816359498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4573.117879057176</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="L39" t="n">
-        <v>305.3113489363686</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="M39" t="n">
-        <v>305.3113489363686</v>
+        <v>3943.801413733855</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3113489363686</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>842.3270571327721</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C40" t="n">
-        <v>670.3544940116881</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841824</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>440.4214573370359</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7366,16 +7368,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="X40" t="n">
-        <v>1032.493025844838</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y40" t="n">
-        <v>1032.493025844838</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1412.500519452315</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1412.500519452315</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>989.2078986373151</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>989.2078986373151</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>564.0837168267153</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>600.154153638032</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1497.146744455151</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>1497.146744455151</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605963</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.28691719461</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3403.28691719461</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3045.79750232086</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2649.406152621207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2237.686153788954</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1832.348883743845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>942.113308572842</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N42" t="n">
-        <v>942.113308572842</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.152570258806</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1799.152570258806</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>703.9029448184209</v>
+        <v>689.7018875039219</v>
       </c>
       <c r="C43" t="n">
-        <v>531.9303816973369</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="D43" t="n">
-        <v>531.9303816973369</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E43" t="n">
-        <v>531.9303816973369</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F43" t="n">
-        <v>360.0686074718973</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>2009.557929402028</v>
+        <v>2185.522840799594</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.373480902332</v>
+        <v>1905.338392299898</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.662013510361</v>
+        <v>1623.626924907927</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.809609682874</v>
+        <v>1348.77452108044</v>
       </c>
       <c r="X43" t="n">
-        <v>930.2457131286789</v>
+        <v>1106.210624526246</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.9029448184209</v>
+        <v>879.8678562159876</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>815.6783808167162</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>1712.670971633836</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M44" t="n">
-        <v>2609.663562450955</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>3506.656153268074</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3506.656153268074</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268074</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3624.212488149977</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3624.212488149977</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3301.171797500597</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2895.834527455488</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>344.1817390425906</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>1164.974163305011</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>1164.974163305011</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N45" t="n">
-        <v>1164.974163305011</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O45" t="n">
-        <v>1164.974163305011</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.3185871095232</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C46" t="n">
-        <v>244.3460239884391</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D46" t="n">
-        <v>244.3460239884391</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E46" t="n">
-        <v>244.3460239884391</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S46" t="n">
-        <v>2155.478888179296</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T46" t="n">
-        <v>1912.139540405195</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.9550919055</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V46" t="n">
-        <v>1350.243624513529</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.391220686042</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X46" t="n">
-        <v>832.8273241318468</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y46" t="n">
-        <v>606.4845558215889</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>404.335273979266</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>457.2862635810461</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8055,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>390.6203542812129</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1178171425367</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587966</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030857</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8216,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>114.7742293394937</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>381.2527255747682</v>
+        <v>89.24714193129969</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>114.8034077411299</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>97.94106200967602</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>383.0815870834484</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8626,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>109.757094581067</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369264</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>677.1461373703554</v>
+        <v>666.8880674041833</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701174</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719406</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>422.0103842716674</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,16 +9005,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>200.1434439071789</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498225</v>
+        <v>921.9548738586915</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9024,10 +9026,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>728.3675687028222</v>
+        <v>480.8452212937382</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,22 +9242,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>749.1541615704315</v>
+        <v>676.5644435722569</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>280.320346557523</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>509.0341153029024</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
-        <v>464.8736204150517</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>26.3038179559056</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9732,7 +9734,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>348.6939416158729</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10112,13 +10114,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10194,13 +10196,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>618.9086683272931</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,25 +10433,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>398.5805034488242</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>229.9501690078888</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10598,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>121.8329647736524</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>659.3662058264936</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>205.0458253196299</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>280.9020403556215</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>888.8681136474386</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>420.1996232562448</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701172</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,16 +11375,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>851.5983435449577</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>103.7539634924349</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>146.6303100077931</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>71.98949189919263</v>
+        <v>78.46500645090006</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>258.0787205209381</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.33105441802965</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23701,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>18.44967133088741</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>81.76940895606268</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>185.0894602944068</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>131.2378753368761</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>68.15019490184623</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>53.03736173750113</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>44.77552117258905</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>132.0538482646176</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>96.37201393520189</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>2.540411739665473</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>71.98949189919222</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.98949189919247</v>
+        <v>114.1895583998068</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>98.59602262526637</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>192.9297892701367</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>208.5018941340727</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>121.0150742609554</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.2532104568884</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>87.7925151010441</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.7855238263052</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>496554.8124960316</v>
+        <v>497472.7398768174</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>496554.8124960316</v>
+        <v>500444.7873558154</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>496554.8124960316</v>
+        <v>500444.7873558154</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403028.1868305725</v>
+        <v>506888.776101894</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403028.1868305725</v>
+        <v>506888.776101894</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506888.7761018942</v>
+        <v>506888.776101894</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506888.776101894</v>
+        <v>506888.7761018942</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506888.776101894</v>
+        <v>506888.7761018942</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403028.1868305724</v>
+        <v>506888.776101894</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403028.1868305724</v>
+        <v>506888.7761018942</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553320.5346106046</v>
+        <v>553320.534610605</v>
       </c>
       <c r="C2" t="n">
-        <v>553320.5346106046</v>
+        <v>553320.5346106048</v>
       </c>
       <c r="D2" t="n">
-        <v>553320.5346106048</v>
+        <v>553320.534610605</v>
       </c>
       <c r="E2" t="n">
-        <v>424545.0315558379</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="F2" t="n">
-        <v>424545.0315558379</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="G2" t="n">
+        <v>533928.8829805746</v>
+      </c>
+      <c r="H2" t="n">
+        <v>533928.8829805746</v>
+      </c>
+      <c r="I2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="J2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="H2" t="n">
-        <v>533928.8829805745</v>
-      </c>
-      <c r="I2" t="n">
-        <v>533928.8829805747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>533928.8829805746</v>
-      </c>
       <c r="K2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="L2" t="n">
         <v>533928.8829805749</v>
-      </c>
-      <c r="L2" t="n">
-        <v>533928.8829805747</v>
       </c>
       <c r="M2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="N2" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="O2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="P2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805747</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191810.9398986468</v>
+        <v>187607.66954561</v>
       </c>
       <c r="C4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986469</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>46140.42348557888</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>46140.42348557888</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187958</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
@@ -26448,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145203.159823609</v>
+        <v>140546.9461732425</v>
       </c>
       <c r="C6" t="n">
-        <v>299828.8804417294</v>
+        <v>288469.0476203866</v>
       </c>
       <c r="D6" t="n">
-        <v>299828.8804417296</v>
+        <v>311875.881293999</v>
       </c>
       <c r="E6" t="n">
-        <v>190552.9102407773</v>
+        <v>182374.9503836248</v>
       </c>
       <c r="F6" t="n">
-        <v>323316.5782503793</v>
+        <v>398114.3069402655</v>
       </c>
       <c r="G6" t="n">
-        <v>295954.3868459556</v>
+        <v>398114.3069402653</v>
       </c>
       <c r="H6" t="n">
-        <v>398114.3069402652</v>
+        <v>398114.3069402653</v>
       </c>
       <c r="I6" t="n">
+        <v>398114.3069402655</v>
+      </c>
+      <c r="J6" t="n">
+        <v>271537.0383599767</v>
+      </c>
+      <c r="K6" t="n">
+        <v>379467.7065832458</v>
+      </c>
+      <c r="L6" t="n">
+        <v>398114.3069402655</v>
+      </c>
+      <c r="M6" t="n">
+        <v>218050.4354850979</v>
+      </c>
+      <c r="N6" t="n">
+        <v>398114.3069402653</v>
+      </c>
+      <c r="O6" t="n">
         <v>398114.3069402654</v>
       </c>
-      <c r="J6" t="n">
-        <v>277391.7899975084</v>
-      </c>
-      <c r="K6" t="n">
-        <v>398114.3069402655</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>398114.3069402654</v>
-      </c>
-      <c r="M6" t="n">
-        <v>287304.9468311322</v>
-      </c>
-      <c r="N6" t="n">
-        <v>398114.3069402657</v>
-      </c>
-      <c r="O6" t="n">
-        <v>323316.5782503793</v>
-      </c>
-      <c r="P6" t="n">
-        <v>323316.5782503793</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771604</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771604</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>9.484490074084192</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>345.4883608353618</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27543,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.03140808913938</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>88.10527301388602</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -27555,7 +27557,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>378.4609890029299</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>4.095730177743707</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>109.026862955341</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>68.56377480991951</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>318.5130220887418</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>116.7785992343817</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>88.68555826464308</v>
+        <v>162.2770323843603</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30709,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30885,7 +30887,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>368.5706731844567</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34775,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>368.1052675669834</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759657149</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34936,7 +34938,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>77.19886752926243</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9096973612265</v>
+        <v>67.90411371775802</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>75.42597529544646</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>359.9096973612262</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35346,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>80.33713509548045</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374946</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374946</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>654.0493568580274</v>
+        <v>643.7912868918553</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374945</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374945</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>384.4350224614361</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>177.6283571929494</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374945</v>
+        <v>898.8580933463635</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>690.7922068925909</v>
+        <v>443.2698594835069</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>726.6390748562019</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>3.207037443577619</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36452,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>310.3818991832499</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>581.517708971269</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>376.8096622439955</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>191.6381265752659</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37318,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>86.8003148788559</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>636.2694253141656</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>166.733782887007</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>865.6962239252164</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>384.4350224614355</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374943</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>829.0832568307281</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>81.00692520345643</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38183,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366198</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2635115.121865274</v>
+        <v>2634418.460660183</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1653905745305</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>44.46922478469619</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -828,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>82.03788346929916</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>160.9190842242692</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -913,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>30.45217236621979</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>61.22597453453216</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1104,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>76.34947650093977</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>260.3583659365897</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1147,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>101.9377160114315</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>2.269091404314645</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0.7573427009619353</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>91.67815003228512</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>109.826847404852</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1767,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>253.6542084583247</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>101.992961581339</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>55.04879729424608</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>187.8685925588579</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>108.8521060317415</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
-        <v>68.22238607350829</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.02781544003311</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>55.95359808337834</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>85.96456344791471</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="41">
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>126.0481962669387</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>49.65274383947055</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4140,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>11.12043047005377</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>528.1740540056944</v>
+        <v>572.7938045089777</v>
       </c>
       <c r="C2" t="n">
-        <v>505.3137280593986</v>
+        <v>549.9334785626819</v>
       </c>
       <c r="D2" t="n">
-        <v>82.02110724439883</v>
+        <v>530.6812617880862</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08457143266044</v>
+        <v>508.7447259763478</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246474</v>
+        <v>83.62054416574802</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>403.5871017449296</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>403.5871017449296</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="M2" t="n">
-        <v>403.5871017449296</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="N2" t="n">
-        <v>403.5871017449296</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873578</v>
+        <v>1479.021285111693</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1479.021285111693</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1609.813899533649</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1351.458990130062</v>
       </c>
       <c r="V2" t="n">
-        <v>1351.458990130057</v>
+        <v>993.9695752563111</v>
       </c>
       <c r="W2" t="n">
-        <v>1351.458990130057</v>
+        <v>597.578225556658</v>
       </c>
       <c r="X2" t="n">
-        <v>939.7389912978047</v>
+        <v>589.8986307648094</v>
       </c>
       <c r="Y2" t="n">
-        <v>938.442125293099</v>
+        <v>588.6017647601037</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668169</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843216</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996066</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725438</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>273.848999055448</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.795227273052</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353616</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972735</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J3" t="n">
-        <v>133.8657769972735</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K3" t="n">
-        <v>133.8657769972735</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="L3" t="n">
-        <v>498.2899918885871</v>
+        <v>517.6410595347468</v>
       </c>
       <c r="M3" t="n">
-        <v>977.2289161310152</v>
+        <v>996.579983777176</v>
       </c>
       <c r="N3" t="n">
-        <v>1456.167840373443</v>
+        <v>1475.518908019605</v>
       </c>
       <c r="O3" t="n">
-        <v>1456.167840373443</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366924</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335872</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868796</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.8622312313053</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>550.8622312313053</v>
+        <v>949.9106946954704</v>
       </c>
       <c r="D4" t="n">
-        <v>387.545458358076</v>
+        <v>786.5939218222411</v>
       </c>
       <c r="E4" t="n">
-        <v>221.3372525109295</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="F4" t="n">
-        <v>138.4707035520415</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520415</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>96.19346351647553</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273803</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271588</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974096</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453209</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.971717135006</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.971717135006</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.787268635311</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="V4" t="n">
-        <v>1484.787268635311</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="W4" t="n">
-        <v>1209.934864807824</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="X4" t="n">
-        <v>967.3709682536288</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="Y4" t="n">
-        <v>741.0281999433709</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>862.5982923554784</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>839.7379664091826</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>820.4857496345869</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>798.5492138228485</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>373.4250320122487</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>373.1263736421014</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>75.25799511613621</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4579,13 +4579,13 @@
         <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>887.3827134031587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>879.7031186113101</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>878.4062526066044</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>974.3357998282165</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.001334812655</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>1525.001334812655</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1592.226407393235</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.226407393235</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>2142.891942377673</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.0860276212358</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>623.2416088994861</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>459.9248360262568</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754307</v>
+        <v>1621.308767930091</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.0860276212358</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.947823099961</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
         <v>79.39509630577632</v>
@@ -4804,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2017.57656842498</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1759.221659021392</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1401.732244147642</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>1401.732244147642</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.052649355793</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y8" t="n">
-        <v>1392.755783351087</v>
+        <v>427.8148593995469</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1699405917395</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.7631532458477</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C10" t="n">
-        <v>791.7905901247636</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D10" t="n">
-        <v>628.4738172515343</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
         <v>626.1818057320246</v>
@@ -4995,19 +4995,19 @@
         <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W10" t="n">
-        <v>1622.835786822366</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.271890268171</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.929121957913</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,49 +5041,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,28 +5117,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>739.6560874287652</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
         <v>1828.971033901635</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>776.7012749360533</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>604.7287118149693</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D13" t="n">
-        <v>604.7287118149693</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E13" t="n">
-        <v>604.7287118149693</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
         <v>345.8675501573982</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5229,22 +5229,22 @@
         <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>1992.33777973203</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U13" t="n">
-        <v>1992.33777973203</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V13" t="n">
-        <v>1710.626312340059</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W13" t="n">
-        <v>1435.773908512572</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X13" t="n">
-        <v>1193.210011958377</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.867243648119</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="14">
@@ -5278,31 +5278,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3696.34920575453</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
         <v>5010.768376164567</v>
@@ -5320,7 +5320,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>5033.116360206724</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085.715267670341</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C16" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>2001.004273426986</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1744.78790124686</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1502.224004692665</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>1275.881236382407</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,34 +5515,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>703.5067984699893</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>703.5067984699893</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>540.1900255967601</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>929.8495667802473</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>703.5067984699893</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5764,22 +5764,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5299206506891</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>357.5299206506891</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>786.8947875232845</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>614.9222244022005</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>451.6054515289712</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>285.3972456818248</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>113.5354714563852</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>113.5354714563852</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.81982492729</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1445.967421099803</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.403524545608</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>977.0607562353503</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6077,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>850.3052888313966</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>678.3327257103126</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>678.3327257103126</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1875.775824915308</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1875.775824915308</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1594.064357523336</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1319.211953695849</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1076.648057141655</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>850.3052888313966</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>188.235025135897</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4659.050190787244</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>919.5070618231949</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>747.5344987021109</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2172.764118564673</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1892.579670064977</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1610.868202673005</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1336.015798845518</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1336.015798845518</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1109.673030535261</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2036.213862444163</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>844.5735305570797</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>672.6009674359957</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>509.2841945627664</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0759887156199</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>171.2142144901804</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1503.646164133598</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1261.082267579403</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1034.739499269145</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>855.0038060102931</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2238.243199970439</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2068.108152489574</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1824.768804715474</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1544.584356215778</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1262.872888823807</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6946,40 +6946,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1070.140847647432</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>898.1682845263483</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>734.851511653119</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>568.6433058059725</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1260.306816359498</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1260.306816359498</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1260.306816359498</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7174,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3313.894682672831</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3313.894682672831</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3313.894682672831</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>3313.894682672831</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M39" t="n">
-        <v>3943.801413733855</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N39" t="n">
-        <v>5033.116360206724</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7368,16 +7368,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1502.224004692665</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1502.224004692665</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.224004692665</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,19 +7399,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7426,22 +7426,22 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>357.5299206506891</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>689.7018875039219</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>517.7293243828378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7293243828378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E43" t="n">
-        <v>517.7293243828378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F43" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.522840799594</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1905.338392299898</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1623.626924907927</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.77452108044</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1106.210624526246</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.8678562159876</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
         <v>435.0679631883225</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1748.774177950213</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
         <v>1828.971033901635</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>775.6620294727279</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>603.6894663516439</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
         <v>274.1644876312681</v>
@@ -7806,52 +7806,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.71574081896</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2271.4829827684</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1991.298534268705</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.587066876733</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.734663049246</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.170766495052</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.8279981847936</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>404.335273979266</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865918</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.056313988415</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>158.4392851313992</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8063,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>390.6203542812129</v>
+        <v>506.2917778681985</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662959</v>
+        <v>506.873471666297</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675096</v>
+        <v>505.1197193675106</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>398.799018866891</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587966</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030857</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.0381883674112</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8227,16 +8227,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,19 +8294,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870438</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>89.24714193129969</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,7 +8315,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>97.94106200967602</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>666.8880674041833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8932,19 +8932,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871911</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>921.9548738586915</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,10 +9023,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9166,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>480.8452212937382</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>676.5644435722569</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>653.7961895378362</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>280.320346557523</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9725,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10445,10 +10445,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10594,16 +10594,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804204</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,31 +10901,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M39" t="n">
-        <v>659.3662058264936</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>280.9020403556215</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
@@ -11384,7 +11384,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7539634924349</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>78.46500645090006</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.0675053131994</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23703,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>18.44967133088741</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>68.15019490184621</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>185.0894602944068</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>131.2378753368761</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>53.03736173750113</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>132.0538482646176</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
-        <v>96.37201393520189</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.540411739665473</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>114.1895583998068</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>192.9297892701367</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>44.20464122293447</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.2532104568884</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.7855238263052</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506888.7761018942</v>
+        <v>506888.776101894</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506888.7761018942</v>
+        <v>506888.776101894</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506888.7761018942</v>
+        <v>506888.776101894</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>553320.5346106048</v>
       </c>
       <c r="D2" t="n">
-        <v>553320.534610605</v>
+        <v>553320.5346106048</v>
       </c>
       <c r="E2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805746</v>
       </c>
       <c r="F2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="G2" t="n">
-        <v>533928.8829805746</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="H2" t="n">
-        <v>533928.8829805746</v>
+        <v>533928.8829805751</v>
       </c>
       <c r="I2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.882980575</v>
       </c>
       <c r="J2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.882980575</v>
       </c>
       <c r="K2" t="n">
         <v>533928.882980575</v>
       </c>
       <c r="L2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="M2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="N2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="O2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.882980575</v>
       </c>
       <c r="P2" t="n">
         <v>533928.8829805747</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187607.66954561</v>
+        <v>187607.6695456099</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791779</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
         <v>173998.4022791778</v>
@@ -26429,19 +26429,19 @@
         <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187958</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187966</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
@@ -26450,10 +26450,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="O4" t="n">
         <v>58064.51385187964</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140546.9461732425</v>
+        <v>140546.9461732423</v>
       </c>
       <c r="C6" t="n">
-        <v>288469.0476203866</v>
+        <v>288469.0476203869</v>
       </c>
       <c r="D6" t="n">
-        <v>311875.881293999</v>
+        <v>311875.8812939988</v>
       </c>
       <c r="E6" t="n">
-        <v>182374.9503836248</v>
+        <v>182323.9197214405</v>
       </c>
       <c r="F6" t="n">
-        <v>398114.3069402655</v>
+        <v>398063.2762780813</v>
       </c>
       <c r="G6" t="n">
-        <v>398114.3069402653</v>
+        <v>398063.2762780812</v>
       </c>
       <c r="H6" t="n">
-        <v>398114.3069402653</v>
+        <v>398063.2762780815</v>
       </c>
       <c r="I6" t="n">
-        <v>398114.3069402655</v>
+        <v>398063.2762780814</v>
       </c>
       <c r="J6" t="n">
-        <v>271537.0383599767</v>
+        <v>271486.0076977923</v>
       </c>
       <c r="K6" t="n">
-        <v>379467.7065832458</v>
+        <v>379416.6759210618</v>
       </c>
       <c r="L6" t="n">
-        <v>398114.3069402655</v>
+        <v>398063.2762780811</v>
       </c>
       <c r="M6" t="n">
-        <v>218050.4354850979</v>
+        <v>217999.4048229137</v>
       </c>
       <c r="N6" t="n">
-        <v>398114.3069402653</v>
+        <v>398063.2762780813</v>
       </c>
       <c r="O6" t="n">
-        <v>398114.3069402654</v>
+        <v>398063.2762780814</v>
       </c>
       <c r="P6" t="n">
-        <v>398114.3069402654</v>
+        <v>398063.2762780812</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.484490074084192</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>355.8264470017497</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>88.10527301388602</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>63.1602564028862</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>4.095730177743707</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>109.026862955341</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>163.7887810877131</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>155.291514712025</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>116.7785992343817</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>162.2770323843603</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>276.6252613137368</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30887,7 +30887,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>368.5706731844567</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539679</v>
+        <v>121.0483257753751</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>368.1052675669834</v>
+        <v>483.776691153969</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>375.6271291446688</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759657149</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709424715</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,19 +35014,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>67.90411371775802</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>75.42597529544646</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
+        <v>155.2981118204435</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>643.7912868918553</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35652,19 +35652,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>726.150452031167</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>898.8580933463635</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35886,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>443.2698594835069</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>654.0493568580273</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>616.220827727605</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>257.8052598432935</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36445,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37621,31 +37621,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M39" t="n">
-        <v>636.2694253141656</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.00692520345643</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38183,7 +38183,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>395.1371666366198</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>
